--- a/DATA/ECUADOR EN CIFRAS MUJERES Y HOMBRES.xlsx
+++ b/DATA/ECUADOR EN CIFRAS MUJERES Y HOMBRES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UTPL\3 SEMESTRE\Programacion-algoritmos\trabajo-final-primer-bimestre-final-003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UTPL\3 SEMESTRE\Programacion-algoritmos\trabajo-final-primer-bimestre-final-003\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,8 +236,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -329,23 +329,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -354,26 +339,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,10 +354,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,327 +717,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>1990</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>4851777</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>50.3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>4796412</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>49.7</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>9648189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>1833735</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>49</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>1905489</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>51</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>3739224</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>2800669</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>51</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>2690113</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>49</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>5490782</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>217373</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>52</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>200810</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>48</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>418183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>2001</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>6138225</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>50.5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>6018353</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>49.5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>12156608</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>1933050</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>49.3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>2046970</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>50.7</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>4040020</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
         <v>3720270</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>50.9</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>3582694</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>49.1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <v>7302964</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
         <v>424935</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>52.2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="9">
         <v>388689</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>47.8</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="9">
         <v>813624</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>2010</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>7305816</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>50.4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>7177683</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>49.6</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>14483499</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="9">
         <v>2227253</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>55.1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <v>2301172</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>57</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <v>4040020</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="9">
         <v>4583512</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>62.8</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="9">
         <v>4430657</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="11">
         <v>60.7</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="9">
         <v>7302964</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="9">
         <v>495051</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>60.8</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="9">
         <v>445854</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="11">
         <v>54.8</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="9">
         <v>813624</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="18"/>
+      <c r="G21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1058,184 +1058,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>517797</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="13">
         <v>7.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <v>500379</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>7</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="13">
         <v>103.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>513112</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="13">
         <v>7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>528447</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <v>7.4</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="13">
         <v>97.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>500115</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="13">
         <v>6.8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>570613</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="13">
         <v>7.9</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="13">
         <v>87.6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>5301654</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="13">
         <v>72.599999999999994</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>5115645</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="13">
         <v>71.3</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="13">
         <v>103.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>448740</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="13">
         <v>6.1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>433643</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="13">
         <v>6</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="13">
         <v>103.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>24398</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="13">
         <v>0.3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>28956</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="13">
         <v>0.4</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="13">
         <v>84.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>7305816</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="13">
         <v>100</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>7177683</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="13">
         <v>101.8</v>
       </c>
     </row>
@@ -1265,166 +1265,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="15">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="15">
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="15">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="15">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="15">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="15">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="15">
         <v>0.03</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="15">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="15">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="15">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="15">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="15">
         <v>0.104</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="15">
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="15">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="15">
         <v>0.128</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="15">
         <v>0.497</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <v>0.34300000000000003</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="15">
         <v>0.316</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="15">
         <v>0.22399999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="16">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="16">
         <v>3.1E-2</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="16">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="16">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="16">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="16">
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
@@ -1455,88 +1455,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>421</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>524</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>483</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>80.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>219</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>293</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>273</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <v>74.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>374</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>445</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>419</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="17">
         <v>84</v>
       </c>
     </row>
@@ -1568,88 +1568,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>693</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>936</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>862</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>74.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>302</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>448</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>417</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <v>67.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>591</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>758</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>713</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="17">
         <v>77.900000000000006</v>
       </c>
     </row>
@@ -1679,58 +1679,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="18">
         <v>3.2104166666666667</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="18">
         <v>2.5805555555555553</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="18">
         <v>3.1284722222222219</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="18">
         <v>2.6208333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="18">
         <v>3.4569444444444444</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="18">
         <v>2.5076388888888888</v>
       </c>
     </row>
@@ -1757,310 +1757,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>25</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>75</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>13.2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>112</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>86.8</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>21</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>91.3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>149</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>11.8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>1110</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>88.2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>14</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>6.3</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="9">
         <v>207</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <v>93.7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>5038</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>46.1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>5884</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>53.9</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>452</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>28.6</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>1128</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="11">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>759</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>47.5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>839</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>52.5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>40</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>32.299999999999997</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="9">
         <v>84</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <v>67.7</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>49</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>42.6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>66</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>57.4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>60</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>8374</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>42.7</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>11226</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>57.3</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>873</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="11">
         <v>21.9</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="9">
         <v>3107</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="11">
         <v>78.099999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>14388</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>42.8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>19243</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>57.2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>1384</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>23.3</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>4550</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>76.7</v>
       </c>
     </row>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCFC005-00F7-4E39-9AE1-83B874D67622}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,76 +2095,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>2344613</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>3819556</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="21">
         <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>915728</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>1560700</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="21">
         <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>3260340</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>5380256</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <v>0.60599999999999998</v>
       </c>
     </row>

--- a/DATA/ECUADOR EN CIFRAS MUJERES Y HOMBRES.xlsx
+++ b/DATA/ECUADOR EN CIFRAS MUJERES Y HOMBRES.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="7" xr2:uid="{A071CEE3-1AA2-495A-BFFC-2FA92E96C3DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja 5" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja 6" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja 7" sheetId="1" r:id="rId7"/>
+    <sheet name="Hoja 8" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -324,13 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -359,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,9 +371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -699,564 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6552706-44D3-4BDF-9613-A0D04EFC7AEE}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD164378-157A-4DE3-8B37-19C42EAA0449}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1990</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4851777</v>
-      </c>
-      <c r="C6" s="6">
-        <v>50.3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4796412</v>
-      </c>
-      <c r="E6" s="7">
-        <v>49.7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9648189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1833735</v>
-      </c>
-      <c r="C7" s="10">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1905489</v>
-      </c>
-      <c r="E7" s="11">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3739224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2800669</v>
-      </c>
-      <c r="C8" s="10">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2690113</v>
-      </c>
-      <c r="E8" s="11">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5490782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>217373</v>
-      </c>
-      <c r="C9" s="10">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9">
-        <v>200810</v>
-      </c>
-      <c r="E9" s="11">
-        <v>48</v>
-      </c>
-      <c r="F9" s="9">
-        <v>418183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2001</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6138225</v>
-      </c>
-      <c r="C10" s="6">
-        <v>50.5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6018353</v>
-      </c>
-      <c r="E10" s="7">
-        <v>49.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>12156608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1933050</v>
-      </c>
-      <c r="C11" s="10">
-        <v>49.3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2046970</v>
-      </c>
-      <c r="E11" s="11">
-        <v>50.7</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4040020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3720270</v>
-      </c>
-      <c r="C12" s="10">
-        <v>50.9</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3582694</v>
-      </c>
-      <c r="E12" s="11">
-        <v>49.1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>7302964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9">
-        <v>424935</v>
-      </c>
-      <c r="C13" s="10">
-        <v>52.2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>388689</v>
-      </c>
-      <c r="E13" s="11">
-        <v>47.8</v>
-      </c>
-      <c r="F13" s="9">
-        <v>813624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="5">
-        <v>7305816</v>
-      </c>
-      <c r="C14" s="6">
-        <v>50.4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7177683</v>
-      </c>
-      <c r="E14" s="7">
-        <v>49.6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>14483499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2227253</v>
-      </c>
-      <c r="C15" s="10">
-        <v>55.1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2301172</v>
-      </c>
-      <c r="E15" s="11">
-        <v>57</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4040020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4583512</v>
-      </c>
-      <c r="C16" s="10">
-        <v>62.8</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4430657</v>
-      </c>
-      <c r="E16" s="11">
-        <v>60.7</v>
-      </c>
-      <c r="F16" s="9">
-        <v>7302964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9">
-        <v>495051</v>
-      </c>
-      <c r="C17" s="10">
-        <v>60.8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>445854</v>
-      </c>
-      <c r="E17" s="11">
-        <v>54.8</v>
-      </c>
-      <c r="F17" s="9">
-        <v>813624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96164805-5C81-4118-BD6F-5363FA4148ED}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9">
-        <v>517797</v>
-      </c>
-      <c r="C4" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>500379</v>
-      </c>
-      <c r="E4" s="13">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13">
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9">
-        <v>513112</v>
-      </c>
-      <c r="C5" s="13">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9">
-        <v>528447</v>
-      </c>
-      <c r="E5" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="F5" s="13">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9">
-        <v>500115</v>
-      </c>
-      <c r="C6" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>570613</v>
-      </c>
-      <c r="E6" s="13">
-        <v>7.9</v>
-      </c>
-      <c r="F6" s="13">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5301654</v>
-      </c>
-      <c r="C7" s="13">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5115645</v>
-      </c>
-      <c r="E7" s="13">
-        <v>71.3</v>
-      </c>
-      <c r="F7" s="13">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9">
-        <v>448740</v>
-      </c>
-      <c r="C8" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>433643</v>
-      </c>
-      <c r="E8" s="13">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9">
-        <v>24398</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>28956</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="13">
-        <v>84.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9">
-        <v>7305816</v>
-      </c>
-      <c r="C10" s="13">
-        <v>100</v>
-      </c>
-      <c r="D10" s="9">
-        <v>7177683</v>
-      </c>
-      <c r="E10" s="13">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13">
-        <v>101.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD164378-157A-4DE3-8B37-19C42EAA0449}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,183 +710,285 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="31" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="4" t="s">
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B6" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C6" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D6" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E6" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F6" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G6" s="14">
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B7" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C7" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D7" s="14">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E7" s="14">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F7" s="14">
         <v>0.03</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G7" s="14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B8" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C8" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D8" s="14">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E8" s="14">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F8" s="14">
         <v>0.104</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G8" s="14">
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B9" s="14">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C9" s="14">
         <v>0.128</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D9" s="14">
         <v>0.497</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E9" s="14">
         <v>0.34300000000000003</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F9" s="14">
         <v>0.316</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G9" s="14">
         <v>0.22399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B10" s="15">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C10" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D10" s="15">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E10" s="15">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F10" s="15">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G10" s="15">
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C76958-75C7-4951-BE16-7B59E4F97693}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3.2104166666666667</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.5805555555555553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="17">
+        <v>3.1284722222222219</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2.6208333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3.4569444444444444</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2.5076388888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908A105-B697-4C58-AB1B-5C66D1B39D60}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1455,13 +1003,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -1480,63 +1028,63 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>421</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>524</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>483</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>80.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>219</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>293</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>273</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>74.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>374</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>445</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>419</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>84</v>
       </c>
     </row>
@@ -1552,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A821664-5359-4475-A4E8-F2E71271EF42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1568,13 +1116,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -1593,63 +1141,63 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>693</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>936</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>862</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>74.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>302</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>448</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>417</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>67.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>591</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>758</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>713</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>77.900000000000006</v>
       </c>
     </row>
@@ -1665,85 +1213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C76958-75C7-4951-BE16-7B59E4F97693}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3.2104166666666667</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2.5805555555555553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="18">
-        <v>3.1284722222222219</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2.6208333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="18">
-        <v>3.4569444444444444</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2.5076388888888888</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80C42EE-DDC9-42D7-9698-43E9E6F6AD46}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -1757,17 +1227,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -1807,260 +1277,260 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>25</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>75</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>17</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>13.2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>112</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>86.8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>21</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>91.3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>149</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>11.8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1110</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>88.2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>14</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>6.3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>207</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>93.7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>5038</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>46.1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>5884</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>53.9</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>452</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>28.6</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1128</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>759</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>47.5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>839</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>52.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>40</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>32.299999999999997</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>84</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>67.7</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>49</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>42.6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>66</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>57.4</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>60</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>8374</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>42.7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>11226</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>57.3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>873</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>21.9</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3107</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>78.099999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>14388</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>42.8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>19243</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>57.2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1384</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>23.3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>4550</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>76.7</v>
       </c>
     </row>
@@ -2079,11 +1549,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCFC005-00F7-4E39-9AE1-83B874D67622}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2095,76 +1565,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2344613</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3819556</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>915728</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1560700</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3260340</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5380256</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>0.60599999999999998</v>
       </c>
     </row>
@@ -2175,4 +1645,529 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6552706-44D3-4BDF-9613-A0D04EFC7AEE}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4851777</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4796412</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9648189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1833735</v>
+      </c>
+      <c r="C5" s="9">
+        <v>49</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1905489</v>
+      </c>
+      <c r="E5" s="10">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3739224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2800669</v>
+      </c>
+      <c r="C6" s="9">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2690113</v>
+      </c>
+      <c r="E6" s="10">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5490782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>217373</v>
+      </c>
+      <c r="C7" s="9">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8">
+        <v>200810</v>
+      </c>
+      <c r="E7" s="10">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8">
+        <v>418183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6138225</v>
+      </c>
+      <c r="C8" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6018353</v>
+      </c>
+      <c r="E8" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12156608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1933050</v>
+      </c>
+      <c r="C9" s="9">
+        <v>49.3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2046970</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50.7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4040020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3720270</v>
+      </c>
+      <c r="C10" s="9">
+        <v>50.9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3582694</v>
+      </c>
+      <c r="E10" s="10">
+        <v>49.1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7302964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>424935</v>
+      </c>
+      <c r="C11" s="9">
+        <v>52.2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>388689</v>
+      </c>
+      <c r="E11" s="10">
+        <v>47.8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>813624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7305816</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7177683</v>
+      </c>
+      <c r="E12" s="6">
+        <v>49.6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14483499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2227253</v>
+      </c>
+      <c r="C13" s="9">
+        <v>55.1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2301172</v>
+      </c>
+      <c r="E13" s="10">
+        <v>57</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4040020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4583512</v>
+      </c>
+      <c r="C14" s="9">
+        <v>62.8</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4430657</v>
+      </c>
+      <c r="E14" s="10">
+        <v>60.7</v>
+      </c>
+      <c r="F14" s="8">
+        <v>7302964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>495051</v>
+      </c>
+      <c r="C15" s="9">
+        <v>60.8</v>
+      </c>
+      <c r="D15" s="8">
+        <v>445854</v>
+      </c>
+      <c r="E15" s="10">
+        <v>54.8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>813624</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96164805-5C81-4118-BD6F-5363FA4148ED}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8">
+        <v>517797</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>500379</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8">
+        <v>513112</v>
+      </c>
+      <c r="C5" s="12">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>528447</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8">
+        <v>500115</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="D6" s="8">
+        <v>570613</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5301654</v>
+      </c>
+      <c r="C7" s="12">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5115645</v>
+      </c>
+      <c r="E7" s="12">
+        <v>71.3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>448740</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>433643</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>24398</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>28956</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7305816</v>
+      </c>
+      <c r="C10" s="12">
+        <v>100</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7177683</v>
+      </c>
+      <c r="E10" s="12">
+        <v>100</v>
+      </c>
+      <c r="F10" s="12">
+        <v>101.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>